--- a/Excel/07.Assignment 07/Palindrome.xlsx
+++ b/Excel/07.Assignment 07/Palindrome.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Documents\iNeuron-Assignments\Excel\07.Assignment 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D287C265-7928-4F21-ABF5-1340D5B61D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C1B6B-F8D5-473A-A01B-CEFD8F5128A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="palindrome test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>mam</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Put it up</t>
+  </si>
+  <si>
+    <t>Cleaned Data</t>
   </si>
 </sst>
 </file>
@@ -158,9 +161,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,103 +513,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="str">
+        <f>LOWER(SUBSTITUTE(B4," ",""))</f>
+        <v>mam</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>IF("mam"="man","Palindrome","Not a Palindrone")</f>
+        <v>Not a Palindrone</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="str">
+        <f t="shared" ref="C5:C15" si="0">LOWER(SUBSTITUTE(B5," ",""))</f>
+        <v>man</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" ref="D5:D15" si="1">MID(C5,2,2)</f>
+        <v>an</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>amanaplanacanalpanama</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ma</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ablewasi,ereisawelba</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>bl</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>strawwarts</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>tr</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>atoyota'satoyota.</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>to</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cigar?tossitinacan.itissotragic.</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ig</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>dammit,i'mmad!</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>am</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>abba</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>bb</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>kayak</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ay</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>tacocat</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>putitup</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ut</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
